--- a/EstimateAssemplyUpi/титул_юпи.xlsx
+++ b/EstimateAssemplyUpi/титул_юпи.xlsx
@@ -601,16 +601,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="48" spans="1:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="46"/>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="70"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="68" t="s">
         <v>16</v>
       </c>
@@ -2329,15 +2329,15 @@
     </row>
     <row r="49" spans="1:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="46"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
       <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="69"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
       <c r="K49" s="66"/>
       <c r="L49" s="66"/>
       <c r="M49" s="66"/>
@@ -2346,11 +2346,11 @@
     </row>
     <row r="50" spans="1:36" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="46"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="70"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
       <c r="G50" s="68"/>
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
@@ -2433,11 +2433,11 @@
     <row r="57" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
-      <c r="Q57" s="72"/>
-      <c r="R57" s="72"/>
-      <c r="S57" s="72"/>
-      <c r="T57" s="72"/>
-      <c r="U57" s="72"/>
+      <c r="Q57" s="70"/>
+      <c r="R57" s="70"/>
+      <c r="S57" s="70"/>
+      <c r="T57" s="70"/>
+      <c r="U57" s="70"/>
       <c r="AJ57" s="23"/>
     </row>
     <row r="58" spans="1:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3000,7 +3000,7 @@
     <mergeCell ref="B25:AI26"/>
   </mergeCells>
   <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
